--- a/machine_learning_schedule.xlsx
+++ b/machine_learning_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\ML\Machine_Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94B87A7-B875-4A9F-9771-C2CDBB31FB2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B581A76-9C7A-40F4-AC86-099DA25F2DBF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12435" windowHeight="6090" xr2:uid="{94418A89-F01D-42F5-8338-6E93DE9F28F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12432" windowHeight="6096" xr2:uid="{94418A89-F01D-42F5-8338-6E93DE9F28F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,26 +468,26 @@
     <xf numFmtId="46" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="46" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="46" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="46" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -808,24 +808,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63FE9E3-D16E-408D-8DAD-D3ADBE5D2CB8}">
   <dimension ref="A2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" customWidth="1"/>
+    <col min="9" max="9" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
         <v>0</v>
@@ -844,7 +844,7 @@
       </c>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="4">
         <v>1</v>
       </c>
@@ -860,7 +860,7 @@
       <c r="G3" s="7">
         <v>1.2152777777777778E-2</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="20" t="s">
         <v>50</v>
       </c>
       <c r="I3" s="11">
@@ -868,7 +868,7 @@
         <v>2.0821759259259259E-2</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C4" s="4">
         <v>2</v>
       </c>
@@ -884,13 +884,13 @@
       <c r="G4" s="7">
         <v>1.0543981481481481E-2</v>
       </c>
-      <c r="H4" s="24"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="11">
         <f t="shared" si="0"/>
         <v>1.9918981481481482E-2</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C5" s="4">
         <v>3</v>
       </c>
@@ -915,11 +915,11 @@
         <v>2.2141203703703705E-2</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="22">
+    <row r="6" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="19">
         <v>4</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="7">
@@ -931,7 +931,7 @@
       <c r="G6" s="7">
         <v>5.5787037037037038E-3</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="20" t="s">
         <v>51</v>
       </c>
       <c r="I6" s="13">
@@ -939,9 +939,9 @@
         <v>1.7905092592592591E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
+    <row r="7" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="19"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="7"/>
       <c r="F7" s="4" t="s">
         <v>11</v>
@@ -949,14 +949,14 @@
       <c r="G7" s="7">
         <v>9.0624999999999994E-3</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="13">
         <f t="shared" si="0"/>
         <v>9.0624999999999994E-3</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="22">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C8" s="19">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -965,29 +965,29 @@
       <c r="E8" s="7">
         <v>1.0381944444444444E-2</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="7">
         <v>1.0902777777777777E-2</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="13">
         <f t="shared" si="0"/>
         <v>2.1284722222222219E-2</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="22"/>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="19"/>
       <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="7">
         <v>0.01</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="23">
+      <c r="H9" s="18">
         <f>SUM(I6:I9)</f>
         <v>5.8252314814814812E-2</v>
       </c>
@@ -996,8 +996,8 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="22">
+    <row r="10" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="19">
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1012,7 +1012,7 @@
       <c r="G10" s="7">
         <v>8.8078703703703704E-3</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="21" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="14">
@@ -1020,8 +1020,8 @@
         <v>1.5949074074074074E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="22"/>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="19"/>
       <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1034,14 +1034,14 @@
       <c r="G11" s="7">
         <v>1.1469907407407408E-2</v>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="14">
         <f t="shared" si="0"/>
         <v>2.2303240740740742E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="22">
+    <row r="12" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="19">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1056,14 +1056,14 @@
       <c r="G12" s="7">
         <v>7.6620370370370366E-3</v>
       </c>
-      <c r="H12" s="24"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="14">
         <f t="shared" si="0"/>
         <v>1.741898148148148E-2</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="22"/>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="19"/>
       <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1076,14 +1076,14 @@
       <c r="G13" s="7">
         <v>9.1319444444444443E-3</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="14">
         <f t="shared" si="0"/>
         <v>1.5636574074074074E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="22">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="19">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1092,29 +1092,29 @@
       <c r="E14" s="7">
         <v>1.2291666666666666E-2</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="7">
         <v>1.8217592592592594E-2</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="14">
         <f t="shared" si="0"/>
         <v>3.050925925925926E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="22"/>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="19"/>
       <c r="D15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="7">
         <v>8.7615740740740744E-3</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="23">
+      <c r="H15" s="18">
         <f>SUM(I10:I15)</f>
         <v>0.11057870370370371</v>
       </c>
@@ -1123,8 +1123,8 @@
         <v>8.7615740740740744E-3</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="22">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C16" s="19">
         <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1139,7 +1139,7 @@
       <c r="G16" s="7">
         <v>8.6689814814814806E-3</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="21" t="s">
         <v>53</v>
       </c>
       <c r="I16" s="15">
@@ -1147,8 +1147,8 @@
         <v>1.9120370370370371E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="22"/>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C17" s="19"/>
       <c r="D17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1161,14 +1161,14 @@
       <c r="G17" s="7">
         <v>8.4259259259259253E-3</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="15">
         <f t="shared" si="0"/>
         <v>1.5011574074074073E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="22"/>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C18" s="19"/>
       <c r="D18" s="4" t="s">
         <v>28</v>
       </c>
@@ -1177,14 +1177,14 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="15">
         <f t="shared" si="0"/>
         <v>1.2824074074074073E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="22">
+    <row r="19" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="19">
         <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1193,61 +1193,61 @@
       <c r="E19" s="7">
         <v>1.2152777777777778E-2</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="22" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="7">
         <v>1.0127314814814815E-2</v>
       </c>
-      <c r="H19" s="24"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="15">
         <f t="shared" si="0"/>
         <v>2.2280092592592594E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="22"/>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C20" s="19"/>
       <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="7">
         <v>8.5416666666666679E-3</v>
       </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="24"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="15">
         <f t="shared" si="0"/>
         <v>8.5416666666666679E-3</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="22"/>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C21" s="19"/>
       <c r="D21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="7">
         <v>6.8865740740740736E-3</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="24"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="15">
         <f t="shared" si="0"/>
         <v>6.8865740740740736E-3</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="22"/>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C22" s="19"/>
       <c r="D22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="7">
         <v>3.5763888888888894E-3</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="23">
+      <c r="H22" s="18">
         <f>SUM(I16:I22)</f>
         <v>8.8240740740740745E-2</v>
       </c>
@@ -1256,8 +1256,8 @@
         <v>3.5763888888888894E-3</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="22">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C23" s="19">
         <v>11</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1272,7 +1272,7 @@
       <c r="G23" s="7">
         <v>1.1458333333333334E-2</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="21" t="s">
         <v>54</v>
       </c>
       <c r="I23" s="16">
@@ -1280,8 +1280,8 @@
         <v>2.2824074074074073E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="22"/>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C24" s="19"/>
       <c r="D24" s="4" t="s">
         <v>37</v>
       </c>
@@ -1294,14 +1294,14 @@
       <c r="G24" s="7">
         <v>8.7615740740740744E-3</v>
       </c>
-      <c r="H24" s="24"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="16">
         <f t="shared" si="0"/>
         <v>1.2615740740740742E-2</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="22"/>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C25" s="19"/>
       <c r="D25" s="4" t="s">
         <v>38</v>
       </c>
@@ -1314,17 +1314,17 @@
       <c r="G25" s="7">
         <v>7.0254629629629634E-3</v>
       </c>
-      <c r="H25" s="24"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="16">
         <f t="shared" si="0"/>
         <v>1.5717592592592596E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="22">
+    <row r="26" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="19">
         <v>12</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="7">
@@ -1336,15 +1336,15 @@
       <c r="G26" s="7">
         <v>8.726851851851852E-3</v>
       </c>
-      <c r="H26" s="24"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="16">
         <f t="shared" si="0"/>
         <v>2.2418981481481481E-2</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="22"/>
-      <c r="D27" s="20"/>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C27" s="19"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="7"/>
       <c r="F27" s="4" t="s">
         <v>44</v>
@@ -1352,15 +1352,15 @@
       <c r="G27" s="7">
         <v>1.0324074074074074E-2</v>
       </c>
-      <c r="H27" s="24"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="16">
         <f t="shared" si="0"/>
         <v>1.0324074074074074E-2</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="22"/>
-      <c r="D28" s="20"/>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C28" s="19"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="7"/>
       <c r="F28" s="4" t="s">
         <v>45</v>
@@ -1368,15 +1368,15 @@
       <c r="G28" s="7">
         <v>7.858796296296296E-3</v>
       </c>
-      <c r="H28" s="24"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="16">
         <f t="shared" si="0"/>
         <v>7.858796296296296E-3</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="22"/>
-      <c r="D29" s="20"/>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C29" s="19"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
         <v>46</v>
@@ -1384,15 +1384,15 @@
       <c r="G29" s="7">
         <v>7.7314814814814815E-3</v>
       </c>
-      <c r="H29" s="24"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="16">
         <f t="shared" si="0"/>
         <v>7.7314814814814815E-3</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="22"/>
-      <c r="D30" s="20"/>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C30" s="19"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="7"/>
       <c r="F30" s="4" t="s">
         <v>47</v>
@@ -1406,9 +1406,9 @@
         <v>2.8703703703703708E-3</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="22"/>
-      <c r="D31" s="21"/>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C31" s="19"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="7"/>
       <c r="F31" s="4" t="s">
         <v>48</v>
@@ -1425,7 +1425,7 @@
         <v>7.1296296296296307E-3</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="9">
@@ -1445,6 +1445,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="H23:H30"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:D31"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
@@ -1453,17 +1463,7 @@
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H10:H14"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="D26:D31"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H16:H21"/>
-    <mergeCell ref="H23:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
